--- a/IrregularVerbs/Resources/irregular_verbs_source.xlsx
+++ b/IrregularVerbs/Resources/irregular_verbs_source.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>BEAT</t>
   </si>
@@ -70,6 +70,39 @@
   </si>
   <si>
     <t>Past Participle</t>
+  </si>
+  <si>
+    <t>BLOW</t>
+  </si>
+  <si>
+    <t>blew</t>
+  </si>
+  <si>
+    <t>blown</t>
+  </si>
+  <si>
+    <t>blow</t>
+  </si>
+  <si>
+    <t>BREAK</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>BRING</t>
+  </si>
+  <si>
+    <t>brought</t>
+  </si>
+  <si>
+    <t>bring</t>
   </si>
 </sst>
 </file>
@@ -85,15 +118,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,12 +140,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -408,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,74 +479,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IrregularVerbs/Resources/irregular_verbs_source.xlsx
+++ b/IrregularVerbs/Resources/irregular_verbs_source.xlsx
@@ -11,15 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
-  <si>
-    <t>BEAT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>beat</t>
   </si>
@@ -33,18 +30,12 @@
     <t>Infinitive</t>
   </si>
   <si>
-    <t>BECOME</t>
-  </si>
-  <si>
     <t>become</t>
   </si>
   <si>
     <t>became</t>
   </si>
   <si>
-    <t>BEGIN</t>
-  </si>
-  <si>
     <t>begin</t>
   </si>
   <si>
@@ -54,9 +45,6 @@
     <t>begun</t>
   </si>
   <si>
-    <t>BITE</t>
-  </si>
-  <si>
     <t>bite</t>
   </si>
   <si>
@@ -72,9 +60,6 @@
     <t>Past Participle</t>
   </si>
   <si>
-    <t>BLOW</t>
-  </si>
-  <si>
     <t>blew</t>
   </si>
   <si>
@@ -84,9 +69,6 @@
     <t>blow</t>
   </si>
   <si>
-    <t>BREAK</t>
-  </si>
-  <si>
     <t>break</t>
   </si>
   <si>
@@ -96,25 +78,249 @@
     <t>broken</t>
   </si>
   <si>
-    <t>BRING</t>
-  </si>
-  <si>
     <t>brought</t>
   </si>
   <si>
     <t>bring</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>been</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>built</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>caught</t>
+  </si>
+  <si>
+    <t>choose</t>
+  </si>
+  <si>
+    <t>chose</t>
+  </si>
+  <si>
+    <t>chosen</t>
+  </si>
+  <si>
+    <t>burn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">burnt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> burned</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">burnt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>burned</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> were</t>
+    </r>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>drew</t>
+  </si>
+  <si>
+    <t>drawn</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>drank</t>
+  </si>
+  <si>
+    <t>drunk</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>drove</t>
+  </si>
+  <si>
+    <t>driven</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>dreamt | dreamed</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>ate</t>
+  </si>
+  <si>
+    <t>eaten</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>felt</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>fought</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -159,10 +365,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -464,152 +674,680 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="str">
+        <f t="shared" ref="A2:A26" si="0">UPPER(B2)</f>
+        <v>BE</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>BEAT</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>BECOME</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>BEGIN</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>BITE</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>BLOW</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>BREAK</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>BRING</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>BUILD</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>BURN</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>BUY</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>CATCH</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>CHOOSE</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>COME</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>COST</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>CUT</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>DO</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>DRAW</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>DREAM</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>DRINK</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>DRIVE</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>EAT</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FALL</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FEEL</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FIGHT</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="6"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="6"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D26">
+    <sortCondition ref="A16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/IrregularVerbs/Resources/irregular_verbs_source.xlsx
+++ b/IrregularVerbs/Resources/irregular_verbs_source.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="204">
   <si>
     <t>beat</t>
   </si>
@@ -292,6 +292,423 @@
   </si>
   <si>
     <t>fought</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>flew</t>
+  </si>
+  <si>
+    <t>flown</t>
+  </si>
+  <si>
+    <t>forget</t>
+  </si>
+  <si>
+    <t>forgot</t>
+  </si>
+  <si>
+    <t>forgotten</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>gave</t>
+  </si>
+  <si>
+    <t>given</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>went</t>
+  </si>
+  <si>
+    <t>gone</t>
+  </si>
+  <si>
+    <t>grow</t>
+  </si>
+  <si>
+    <t>grew</t>
+  </si>
+  <si>
+    <t>grown</t>
+  </si>
+  <si>
+    <t>hang</t>
+  </si>
+  <si>
+    <t>hung</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>had</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>heard</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>hid</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>held</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>kept</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>knew</t>
+  </si>
+  <si>
+    <t>known</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>lend</t>
+  </si>
+  <si>
+    <t>lent</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>lay</t>
+  </si>
+  <si>
+    <t>lain</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>lit</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>meant</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>ride</t>
+  </si>
+  <si>
+    <t>rode</t>
+  </si>
+  <si>
+    <t>ridden</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>rang</t>
+  </si>
+  <si>
+    <t>rung</t>
+  </si>
+  <si>
+    <t>rise</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>risen</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>said</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>saw</t>
+  </si>
+  <si>
+    <t>seen</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>sold</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>shine</t>
+  </si>
+  <si>
+    <t>shone</t>
+  </si>
+  <si>
+    <t>shoot</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>showed</t>
+  </si>
+  <si>
+    <t>shown</t>
+  </si>
+  <si>
+    <t>shut</t>
+  </si>
+  <si>
+    <t>sing</t>
+  </si>
+  <si>
+    <t>sang</t>
+  </si>
+  <si>
+    <t>sung</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>slept</t>
+  </si>
+  <si>
+    <t>speak</t>
+  </si>
+  <si>
+    <t>spoke</t>
+  </si>
+  <si>
+    <t>spoken</t>
+  </si>
+  <si>
+    <t>spend</t>
+  </si>
+  <si>
+    <t>spent</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>stood</t>
+  </si>
+  <si>
+    <t>steal</t>
+  </si>
+  <si>
+    <t>stole</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>swam</t>
+  </si>
+  <si>
+    <t>swum</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>took</t>
+  </si>
+  <si>
+    <t>taken</t>
+  </si>
+  <si>
+    <t>teach</t>
+  </si>
+  <si>
+    <t>taught</t>
+  </si>
+  <si>
+    <t>tear</t>
+  </si>
+  <si>
+    <t>tore</t>
+  </si>
+  <si>
+    <t>torn</t>
+  </si>
+  <si>
+    <t>tell</t>
+  </si>
+  <si>
+    <t>told</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>throw</t>
+  </si>
+  <si>
+    <t>threw</t>
+  </si>
+  <si>
+    <t>thrown</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>understood</t>
+  </si>
+  <si>
+    <t>wake</t>
+  </si>
+  <si>
+    <t>woke</t>
+  </si>
+  <si>
+    <t>woken</t>
+  </si>
+  <si>
+    <t>wear</t>
+  </si>
+  <si>
+    <t>wore</t>
+  </si>
+  <si>
+    <t>worn</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>wrote</t>
+  </si>
+  <si>
+    <t>written</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>learnt | learned</t>
+  </si>
+  <si>
+    <t>smelt | smelled</t>
+  </si>
+  <si>
+    <t>smell</t>
   </si>
 </sst>
 </file>
@@ -369,10 +786,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -674,38 +1091,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="str">
-        <f t="shared" ref="A2:A26" si="0">UPPER(B2)</f>
+      <c r="A2" s="4" t="str">
+        <f t="shared" ref="A2:A43" si="0">UPPER(B2)</f>
         <v>BE</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -719,7 +1136,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BEAT</v>
       </c>
@@ -734,7 +1151,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BECOME</v>
       </c>
@@ -749,7 +1166,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="str">
+      <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BEGIN</v>
       </c>
@@ -764,7 +1181,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="str">
+      <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BITE</v>
       </c>
@@ -779,7 +1196,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="str">
+      <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BLOW</v>
       </c>
@@ -794,7 +1211,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="str">
+      <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BREAK</v>
       </c>
@@ -809,7 +1226,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="str">
+      <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BRING</v>
       </c>
@@ -824,7 +1241,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="str">
+      <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BUILD</v>
       </c>
@@ -839,7 +1256,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="str">
+      <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BURN</v>
       </c>
@@ -854,7 +1271,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="str">
+      <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BUY</v>
       </c>
@@ -869,7 +1286,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="str">
+      <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>CATCH</v>
       </c>
@@ -884,7 +1301,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="str">
+      <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>CHOOSE</v>
       </c>
@@ -899,7 +1316,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="str">
+      <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>COME</v>
       </c>
@@ -914,7 +1331,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="str">
+      <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>COST</v>
       </c>
@@ -929,7 +1346,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="str">
+      <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>CUT</v>
       </c>
@@ -944,7 +1361,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="str">
+      <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>DO</v>
       </c>
@@ -959,7 +1376,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="str">
+      <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>DRAW</v>
       </c>
@@ -974,7 +1391,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="str">
+      <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>DREAM</v>
       </c>
@@ -989,7 +1406,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="str">
+      <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>DRINK</v>
       </c>
@@ -1004,7 +1421,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="str">
+      <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>DRIVE</v>
       </c>
@@ -1019,7 +1436,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="str">
+      <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>EAT</v>
       </c>
@@ -1034,7 +1451,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="str">
+      <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>FALL</v>
       </c>
@@ -1049,7 +1466,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="str">
+      <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>FEEL</v>
       </c>
@@ -1064,7 +1481,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="str">
+      <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>FIGHT</v>
       </c>
@@ -1079,268 +1496,919 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>FIND</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>FLY</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>FORGET</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>GET</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>GIVE</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>GO</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>GROW</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>HANG</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>HAVE</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>HEAR</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>HIDE</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>HIT</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>HOLD</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>HURT</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>KEEP</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>KNOW</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>LEARN</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="6" t="str">
+        <f>UPPER(B44)</f>
+        <v>LEAVE</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="6" t="str">
+        <f>UPPER(B45)</f>
+        <v>LEND</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="6" t="str">
+        <f>UPPER(B46)</f>
+        <v>LET</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="6" t="str">
+        <f>UPPER(B47)</f>
+        <v>LIE</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="6" t="str">
+        <f>UPPER(B48)</f>
+        <v>LIGHT</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="6" t="str">
+        <f>UPPER(B49)</f>
+        <v>LOSE</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="6" t="str">
+        <f>UPPER(B50)</f>
+        <v>MAKE</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="6" t="str">
+        <f>UPPER(B51)</f>
+        <v>MEAN</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="6" t="str">
+        <f>UPPER(B52)</f>
+        <v>MEET</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="A53" s="6" t="str">
+        <f>UPPER(B53)</f>
+        <v>PAY</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="6" t="str">
+        <f>UPPER(B54)</f>
+        <v>PUT</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="6" t="str">
+        <f>UPPER(B55)</f>
+        <v>READ</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="6"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="A56" s="6" t="str">
+        <f>UPPER(B56)</f>
+        <v>RIDE</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="6" t="str">
+        <f>UPPER(B57)</f>
+        <v>RING</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="6" t="str">
+        <f>UPPER(B58)</f>
+        <v>RISE</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="6" t="str">
+        <f>UPPER(B59)</f>
+        <v>RUN</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="6" t="str">
+        <f>UPPER(B60)</f>
+        <v>SAY</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="6" t="str">
+        <f>UPPER(B61)</f>
+        <v>SEE</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="6"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="6" t="str">
+        <f>UPPER(B62)</f>
+        <v>SELL</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="6" t="str">
+        <f>UPPER(B63)</f>
+        <v>SEND</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="6"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="6" t="str">
+        <f>UPPER(B64)</f>
+        <v>SHINE</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="6"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="A65" s="6" t="str">
+        <f>UPPER(B65)</f>
+        <v>SHOOT</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="6"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="A66" s="6" t="str">
+        <f>UPPER(B66)</f>
+        <v>SHOW</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="6"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="A67" s="6" t="str">
+        <f>UPPER(B67)</f>
+        <v>SHUT</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="6"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="A68" s="6" t="str">
+        <f>UPPER(B68)</f>
+        <v>SING</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="6"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="A69" s="6" t="str">
+        <f>UPPER(B69)</f>
+        <v>SIT</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="A70" s="6" t="str">
+        <f>UPPER(B70)</f>
+        <v>SLEEP</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="str">
+        <f>UPPER(B71)</f>
+        <v>SMELL</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="str">
+        <f>UPPER(B72)</f>
+        <v>SPEAK</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="str">
+        <f>UPPER(B73)</f>
+        <v>SPEND</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="str">
+        <f>UPPER(B74)</f>
+        <v>STAND</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="str">
+        <f>UPPER(B75)</f>
+        <v>STEAL</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="str">
+        <f>UPPER(B76)</f>
+        <v>SWIM</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="str">
+        <f>UPPER(B77)</f>
+        <v>TAKE</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="str">
+        <f>UPPER(B78)</f>
+        <v>TEACH</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="str">
+        <f>UPPER(B79)</f>
+        <v>TEAR</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="str">
+        <f>UPPER(B80)</f>
+        <v>TELL</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="str">
+        <f>UPPER(B81)</f>
+        <v>THINK</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="str">
+        <f>UPPER(B82)</f>
+        <v>THROW</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="str">
+        <f>UPPER(B83)</f>
+        <v>UNDERSTAND</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="str">
+        <f>UPPER(B84)</f>
+        <v>WAKE</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="str">
+        <f>UPPER(B85)</f>
+        <v>WEAR</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="str">
+        <f>UPPER(B86)</f>
+        <v>WIN</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="str">
+        <f>UPPER(B87)</f>
+        <v>WRITE</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:D26">

--- a/IrregularVerbs/Resources/irregular_verbs_source.xlsx
+++ b/IrregularVerbs/Resources/irregular_verbs_source.xlsx
@@ -1752,7 +1752,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="str">
-        <f>UPPER(B44)</f>
+        <f t="shared" ref="A44:A87" si="1">UPPER(B44)</f>
         <v>LEAVE</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1767,7 +1767,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="str">
-        <f>UPPER(B45)</f>
+        <f t="shared" si="1"/>
         <v>LEND</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1782,7 +1782,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="str">
-        <f>UPPER(B46)</f>
+        <f t="shared" si="1"/>
         <v>LET</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1797,7 +1797,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="str">
-        <f>UPPER(B47)</f>
+        <f t="shared" si="1"/>
         <v>LIE</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1812,7 +1812,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="str">
-        <f>UPPER(B48)</f>
+        <f t="shared" si="1"/>
         <v>LIGHT</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1827,7 +1827,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="str">
-        <f>UPPER(B49)</f>
+        <f t="shared" si="1"/>
         <v>LOSE</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1842,7 +1842,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="str">
-        <f>UPPER(B50)</f>
+        <f t="shared" si="1"/>
         <v>MAKE</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1857,7 +1857,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="str">
-        <f>UPPER(B51)</f>
+        <f t="shared" si="1"/>
         <v>MEAN</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1872,7 +1872,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="str">
-        <f>UPPER(B52)</f>
+        <f t="shared" si="1"/>
         <v>MEET</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1887,7 +1887,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="str">
-        <f>UPPER(B53)</f>
+        <f t="shared" si="1"/>
         <v>PAY</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1902,7 +1902,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="str">
-        <f>UPPER(B54)</f>
+        <f t="shared" si="1"/>
         <v>PUT</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -1917,7 +1917,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="str">
-        <f>UPPER(B55)</f>
+        <f t="shared" si="1"/>
         <v>READ</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -1932,7 +1932,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="str">
-        <f>UPPER(B56)</f>
+        <f t="shared" si="1"/>
         <v>RIDE</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -1947,7 +1947,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="str">
-        <f>UPPER(B57)</f>
+        <f t="shared" si="1"/>
         <v>RING</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1962,7 +1962,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="str">
-        <f>UPPER(B58)</f>
+        <f t="shared" si="1"/>
         <v>RISE</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -1977,7 +1977,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="str">
-        <f>UPPER(B59)</f>
+        <f t="shared" si="1"/>
         <v>RUN</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -1992,7 +1992,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="str">
-        <f>UPPER(B60)</f>
+        <f t="shared" si="1"/>
         <v>SAY</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2007,7 +2007,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="str">
-        <f>UPPER(B61)</f>
+        <f t="shared" si="1"/>
         <v>SEE</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2022,7 +2022,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="str">
-        <f>UPPER(B62)</f>
+        <f t="shared" si="1"/>
         <v>SELL</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2037,7 +2037,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="str">
-        <f>UPPER(B63)</f>
+        <f t="shared" si="1"/>
         <v>SEND</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2052,7 +2052,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="str">
-        <f>UPPER(B64)</f>
+        <f t="shared" si="1"/>
         <v>SHINE</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -2067,7 +2067,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="str">
-        <f>UPPER(B65)</f>
+        <f t="shared" si="1"/>
         <v>SHOOT</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2082,7 +2082,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="str">
-        <f>UPPER(B66)</f>
+        <f t="shared" si="1"/>
         <v>SHOW</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -2097,7 +2097,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="str">
-        <f>UPPER(B67)</f>
+        <f t="shared" si="1"/>
         <v>SHUT</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2112,7 +2112,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="str">
-        <f>UPPER(B68)</f>
+        <f t="shared" si="1"/>
         <v>SING</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2127,7 +2127,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="str">
-        <f>UPPER(B69)</f>
+        <f t="shared" si="1"/>
         <v>SIT</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -2142,7 +2142,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="str">
-        <f>UPPER(B70)</f>
+        <f t="shared" si="1"/>
         <v>SLEEP</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2157,7 +2157,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="str">
-        <f>UPPER(B71)</f>
+        <f t="shared" si="1"/>
         <v>SMELL</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -2172,7 +2172,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="str">
-        <f>UPPER(B72)</f>
+        <f t="shared" si="1"/>
         <v>SPEAK</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2187,7 +2187,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="str">
-        <f>UPPER(B73)</f>
+        <f t="shared" si="1"/>
         <v>SPEND</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -2202,7 +2202,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="str">
-        <f>UPPER(B74)</f>
+        <f t="shared" si="1"/>
         <v>STAND</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -2217,7 +2217,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="str">
-        <f>UPPER(B75)</f>
+        <f t="shared" si="1"/>
         <v>STEAL</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -2232,7 +2232,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="str">
-        <f>UPPER(B76)</f>
+        <f t="shared" si="1"/>
         <v>SWIM</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -2247,7 +2247,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="str">
-        <f>UPPER(B77)</f>
+        <f t="shared" si="1"/>
         <v>TAKE</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -2262,7 +2262,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="str">
-        <f>UPPER(B78)</f>
+        <f t="shared" si="1"/>
         <v>TEACH</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -2277,7 +2277,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="str">
-        <f>UPPER(B79)</f>
+        <f t="shared" si="1"/>
         <v>TEAR</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -2292,7 +2292,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="str">
-        <f>UPPER(B80)</f>
+        <f t="shared" si="1"/>
         <v>TELL</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -2307,7 +2307,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="str">
-        <f>UPPER(B81)</f>
+        <f t="shared" si="1"/>
         <v>THINK</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -2322,7 +2322,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="str">
-        <f>UPPER(B82)</f>
+        <f t="shared" si="1"/>
         <v>THROW</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -2337,7 +2337,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="str">
-        <f>UPPER(B83)</f>
+        <f t="shared" si="1"/>
         <v>UNDERSTAND</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -2352,7 +2352,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="str">
-        <f>UPPER(B84)</f>
+        <f t="shared" si="1"/>
         <v>WAKE</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -2367,7 +2367,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="str">
-        <f>UPPER(B85)</f>
+        <f t="shared" si="1"/>
         <v>WEAR</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -2382,7 +2382,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="str">
-        <f>UPPER(B86)</f>
+        <f t="shared" si="1"/>
         <v>WIN</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -2397,7 +2397,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="str">
-        <f>UPPER(B87)</f>
+        <f t="shared" si="1"/>
         <v>WRITE</v>
       </c>
       <c r="B87" s="2" t="s">

--- a/IrregularVerbs/Resources/irregular_verbs_source.xlsx
+++ b/IrregularVerbs/Resources/irregular_verbs_source.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="211">
   <si>
     <t>beat</t>
   </si>
@@ -709,6 +709,27 @@
   </si>
   <si>
     <t>smell</t>
+  </si>
+  <si>
+    <t>laid</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>sew</t>
+  </si>
+  <si>
+    <t>sewed</t>
+  </si>
+  <si>
+    <t>sewn</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>stuck</t>
   </si>
 </sst>
 </file>
@@ -755,7 +776,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -778,11 +799,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -790,6 +822,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1091,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1156,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="str">
-        <f t="shared" ref="A2:A43" si="0">UPPER(B2)</f>
+        <f t="shared" ref="A2:A45" si="0">UPPER(B2)</f>
         <v>BE</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1736,677 +1770,737 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>LEARN</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>201</v>
+      <c r="A43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LAY</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="str">
-        <f t="shared" ref="A44:A87" si="1">UPPER(B44)</f>
-        <v>LEAVE</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>103</v>
+        <f t="shared" si="0"/>
+        <v>LEARN</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>LEND</v>
+        <f t="shared" si="0"/>
+        <v>LEAVE</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>LET</v>
+        <f t="shared" ref="A45:A68" si="1">UPPER(B46)</f>
+        <v>LEND</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>LIE</v>
+        <v>LET</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>LIGHT</v>
+        <v>LIE</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>LOSE</v>
+        <v>LIGHT</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>MAKE</v>
+        <v>LOSE</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>MEAN</v>
+        <v>MAKE</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>MEET</v>
+        <v>MEAN</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>PAY</v>
+        <v>MEET</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>PUT</v>
+        <v>PAY</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>READ</v>
+        <v>PUT</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>RIDE</v>
+        <v>READ</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>RING</v>
+        <v>RIDE</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>RISE</v>
+        <v>RING</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>RUN</v>
+        <v>RISE</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SAY</v>
+        <v>RUN</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SEE</v>
+        <v>SAY</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SELL</v>
+        <v>SEE</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SEND</v>
+        <v>SELL</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SHINE</v>
+        <v>SEND</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SHOOT</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>147</v>
+        <v>SET</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SHOW</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>150</v>
+        <v>SEW</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SHUT</v>
+        <v>SHINE</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>SING</v>
+        <v>SHOOT</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>SIT</v>
+        <f>UPPER(B69)</f>
+        <v>SHOW</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>SLEEP</v>
+        <f>UPPER(B70)</f>
+        <v>SHUT</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>SMELL</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>202</v>
+      <c r="A71" s="6" t="str">
+        <f>UPPER(B71)</f>
+        <v>SING</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>SPEAK</v>
+      <c r="A72" s="6" t="str">
+        <f>UPPER(B72)</f>
+        <v>SIT</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>SPEND</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>162</v>
+        <f>UPPER(B73)</f>
+        <v>SLEEP</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>STAND</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>165</v>
+      <c r="A74" s="5" t="str">
+        <f>UPPER(B74)</f>
+        <v>SMELL</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>STEAL</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>166</v>
+      <c r="A75" s="1" t="str">
+        <f>UPPER(B75)</f>
+        <v>SPEAK</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>SWIM</v>
+        <f>UPPER(B76)</f>
+        <v>SPEND</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>TAKE</v>
+        <f>UPPER(B77)</f>
+        <v>STAND</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>TEACH</v>
+        <f t="shared" ref="A78:A81" si="2">UPPER(B78)</f>
+        <v>STEAL</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>TEAR</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>179</v>
+        <f t="shared" si="2"/>
+        <v>STICK</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>TELL</v>
+        <f t="shared" si="2"/>
+        <v>SWIM</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>THINK</v>
+        <f t="shared" si="2"/>
+        <v>TAKE</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>THROW</v>
+        <f>UPPER(B82)</f>
+        <v>TEACH</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>UNDERSTAND</v>
+        <f>UPPER(B83)</f>
+        <v>TEAR</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>WAKE</v>
+        <f>UPPER(B84)</f>
+        <v>TELL</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>WEAR</v>
+        <f>UPPER(B85)</f>
+        <v>THINK</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>WIN</v>
+        <f>UPPER(B86)</f>
+        <v>THROW</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>UPPER(B87)</f>
+        <v>UNDERSTAND</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="str">
+        <f>UPPER(B88)</f>
+        <v>WAKE</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="str">
+        <f>UPPER(B89)</f>
+        <v>WEAR</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="str">
+        <f>UPPER(B90)</f>
+        <v>WIN</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="str">
+        <f>UPPER(B91)</f>
         <v>WRITE</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>199</v>
       </c>
     </row>

--- a/IrregularVerbs/Resources/irregular_verbs_source.xlsx
+++ b/IrregularVerbs/Resources/irregular_verbs_source.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="214">
   <si>
     <t>beat</t>
   </si>
@@ -730,6 +730,15 @@
   </si>
   <si>
     <t>stuck</t>
+  </si>
+  <si>
+    <t>shake</t>
+  </si>
+  <si>
+    <t>shook</t>
+  </si>
+  <si>
+    <t>shaken</t>
   </si>
 </sst>
 </file>
@@ -814,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -824,6 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1125,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1816,7 +1826,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="str">
-        <f t="shared" ref="A45:A68" si="1">UPPER(B46)</f>
+        <f t="shared" ref="A46:A67" si="1">UPPER(B46)</f>
         <v>LEND</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2130,377 +2140,392 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="str">
+      <c r="A67" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>SHINE</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>145</v>
+        <v>SHAKE</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>SHOOT</v>
+        <f>UPPER(B68)</f>
+        <v>SHINE</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="str">
         <f>UPPER(B69)</f>
-        <v>SHOW</v>
+        <v>SHOOT</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="str">
-        <f>UPPER(B70)</f>
-        <v>SHUT</v>
+        <f t="shared" ref="A70:A78" si="2">UPPER(B70)</f>
+        <v>SHOW</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="str">
-        <f>UPPER(B71)</f>
-        <v>SING</v>
+        <f t="shared" si="2"/>
+        <v>SHUT</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="str">
-        <f>UPPER(B72)</f>
-        <v>SIT</v>
+        <f t="shared" si="2"/>
+        <v>SING</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="str">
-        <f>UPPER(B73)</f>
+        <f t="shared" si="2"/>
+        <v>SIT</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>SLEEP</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="str">
-        <f>UPPER(B74)</f>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SMELL</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B75" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="str">
-        <f>UPPER(B75)</f>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>SPEAK</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="str">
-        <f>UPPER(B76)</f>
-        <v>SPEND</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="str">
-        <f>UPPER(B77)</f>
-        <v>STAND</v>
+        <f t="shared" si="2"/>
+        <v>SPEND</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="str">
-        <f t="shared" ref="A78:A81" si="2">UPPER(B78)</f>
-        <v>STEAL</v>
+        <f t="shared" si="2"/>
+        <v>STAND</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>STICK</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>210</v>
+        <f t="shared" ref="A79:A82" si="3">UPPER(B79)</f>
+        <v>STEAL</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>SWIM</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>171</v>
+        <f t="shared" si="3"/>
+        <v>STICK</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>TAKE</v>
+        <f t="shared" si="3"/>
+        <v>SWIM</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="str">
-        <f>UPPER(B82)</f>
-        <v>TEACH</v>
+        <f t="shared" si="3"/>
+        <v>TAKE</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="str">
-        <f>UPPER(B83)</f>
-        <v>TEAR</v>
+        <f t="shared" ref="A83:A92" si="4">UPPER(B83)</f>
+        <v>TEACH</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="str">
-        <f>UPPER(B84)</f>
-        <v>TELL</v>
+        <f t="shared" si="4"/>
+        <v>TEAR</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="str">
-        <f>UPPER(B85)</f>
-        <v>THINK</v>
+        <f t="shared" si="4"/>
+        <v>TELL</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="str">
-        <f>UPPER(B86)</f>
-        <v>THROW</v>
+        <f t="shared" si="4"/>
+        <v>THINK</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="str">
-        <f>UPPER(B87)</f>
-        <v>UNDERSTAND</v>
+        <f t="shared" si="4"/>
+        <v>THROW</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="str">
-        <f>UPPER(B88)</f>
-        <v>WAKE</v>
+        <f t="shared" si="4"/>
+        <v>UNDERSTAND</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="str">
-        <f>UPPER(B89)</f>
-        <v>WEAR</v>
+        <f t="shared" si="4"/>
+        <v>WAKE</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="str">
-        <f>UPPER(B90)</f>
-        <v>WIN</v>
+        <f t="shared" si="4"/>
+        <v>WEAR</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="str">
-        <f>UPPER(B91)</f>
+        <f t="shared" si="4"/>
+        <v>WIN</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="str">
+        <f t="shared" si="4"/>
         <v>WRITE</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>199</v>
       </c>
     </row>
